--- a/app/src/main/assets/daily_study.xlsx
+++ b/app/src/main/assets/daily_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_spa_study_app\app\src\main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spa_study_app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37345B98-1CD8-4DE6-829D-A114DDB17FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70606FFF-D7C3-42EB-93C8-FFED856F044D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="9060" windowWidth="23240" windowHeight="7490" xr2:uid="{BDCA26F9-94D6-438A-BAD1-7800926BE735}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19330" windowHeight="20970" xr2:uid="{BDCA26F9-94D6-438A-BAD1-7800926BE735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="335">
   <si>
     <t>personal_question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>After the meeting, our team usually goes downstairs to grab a c니p of coffee and have a small talk that is non-work related.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After coming back to the office, I work on things for a few ho니rs until lunch, and try to finish things that are due that day until I leave the office.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The last thing I do before I get off work is to turn off my computer and clean up my desk to get ready to go home.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +115,1020 @@
   </si>
   <si>
     <t>퇴근 전 마지막으로 하는 일은 컴퓨터를 끄고 집에 갈 준비를 하기 위해 책 상을 정리하는 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직장에 통근하는 것은 매우 편리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is very convenient to commute to work.</t>
+  </si>
+  <si>
+    <t>It is really hard for me to find a parking spot.</t>
+  </si>
+  <si>
+    <t>（제가） 주차 공간을 찾는 것은 정말 어렵습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 셔틀버스를 타려면 일찍 일어나야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have to get up early to take the employee shuttle.</t>
+  </si>
+  <si>
+    <t>셔틀버스 정류장이 집에서 가까운 것은 제가 회사에 편하게 갈 수 있게 해줍니다.</t>
+  </si>
+  <si>
+    <t>The shuttle stop is dose to my house, which allows me to get to my work conveniently.</t>
+  </si>
+  <si>
+    <t>셔틀버스를 이용하기 위해서 저는 시간을 지켜야 합니다.</t>
+  </si>
+  <si>
+    <t>I have to be punctual in order to use the shuttle.</t>
+  </si>
+  <si>
+    <t>저는 보통 직원 셔틀 버스를 타고 통근하는데, 이 방법에 많은 장점이 있기 때문입니다.</t>
+  </si>
+  <si>
+    <t>I usually commute to work by the employee_shuttle because there are many advantages to using it.</t>
+  </si>
+  <si>
+    <t>첫째로, 셔틀 버스 정류장이 집으로부 터 걸어서 가까운 위치에 있고, 이것은제가 편리하게 출근하도록 도와줍니다.</t>
+  </si>
+  <si>
+    <t>First, the shuttle stop is located within a short walking distance from my house, which allows me to get to my work conveniently.</t>
+  </si>
+  <si>
+    <t>또한, 셔틀 버스는 무료이기 때문에 매우 경제적 입니다.</t>
+  </si>
+  <si>
+    <t>하지만, 운행 시간표가 정해져 있기 때문에 셔틀 버스를 사용하기 위해서는 시간을 잘 지켜야 합니다.</t>
+  </si>
+  <si>
+    <t>However, because the shuttle schedule is fixed, I have to be punctual in order to use the shuttle.</t>
+  </si>
+  <si>
+    <t>셔틀 버스를 놓 치는 날에는 차로 운전해서 출근을 합니다.</t>
+  </si>
+  <si>
+    <t>This is the less preferred option because it is really hard for me to find a parking spot.</t>
+  </si>
+  <si>
+    <t>이것은제가 선호하는 방법이 아닌데, 주차 공간을 찾기가 매우 어렵기 때문입니다.</t>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 온라인 강의를 수강할 때면 쉽게 졸립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 약을 쟁기기를 잊지 않습니다.</t>
+  </si>
+  <si>
+    <t>저는 식중독에 걸릴 것을 대비해서 비상약을 잊지 않고 챙겨갑니다.</t>
+  </si>
+  <si>
+    <t>저는 여행을 오롯이 즐기기 위해, 여러 종류의 약을 챙겨가는 편은 아닙니다.</t>
+  </si>
+  <si>
+    <t>（이것은） 충분한 배터리 전원이 없이는 불가능할 것입니다.</t>
+  </si>
+  <si>
+    <t>This wouldn’t be possible without enough battery power.</t>
+  </si>
+  <si>
+    <t>I tend to bring different types of medication to fully enjoy my trip.</t>
+  </si>
+  <si>
+    <t>I remember to bring first-aid medicine in case I get sick from food poisoning.</t>
+  </si>
+  <si>
+    <t>I don’t forget to bring medicine.</t>
+  </si>
+  <si>
+    <t>여행을 갈 때면 잊지 않고 챙겨가는 두 세가지의 물건이 있습니다.</t>
+  </si>
+  <si>
+    <t>가장 처음으로, 저는 식중독이나 멀미로 아플 경우를 대비해 비상약을 챙겨갑니다.</t>
+  </si>
+  <si>
+    <t>좋지 않은 위생상태를 가진 나라를 방문할 때는 더욱 중요한 일입니다.</t>
+  </si>
+  <si>
+    <t>따라서, 여행을 즐기기 위해 다양 한 종류의 약을 챙겨가곤 합니다.</t>
+  </si>
+  <si>
+    <t>둘째로, 저는 방문하는 곳이나 시도해본 음식의 사진을 찍어 소셜 미디어에 공유하려고 휴대 폰과 카메라를 위한 추가 배터리를 가져갑니다.</t>
+  </si>
+  <si>
+    <t>이러한 활동들은 충분한 배터리 없이는 불가능하기 때문에, 항상 배터리를 충 분히 충전해 놓아야 합니다.</t>
+  </si>
+  <si>
+    <t>This is more important when I visit countries that have poor sanitation.</t>
+  </si>
+  <si>
+    <t>Therefore, I tend to take different types of medication to fully enjoy my trip.</t>
+  </si>
+  <si>
+    <t>Second, I take extra batteries for my phone and camera to share the photos of the places I visit or the food I try on my social media.</t>
+  </si>
+  <si>
+    <t>This wouldn’t be possible without enough battery power, so it should be fully charged all the time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I easily get sleepy when I take online classes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First and foremost, I remember to take first-aid medicine in case I get sick from'n food poisoning, or get seasick.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the meeting, our team usually goes downstairs to grab a cup of coffee and have a small talk that is non-work related.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After coming back to the office, I work on things for a few hours until lunch, and try to finish things that are due that day until I leave the office.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also, because the shuttle is free of charge, it’s very economical.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On days when I miss the shuttle, I take my car to get to the office.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are a couple of things that I remind myself to take when I go on a trip.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 코미디 영화를 가장 좋아합니다.</t>
+  </si>
+  <si>
+    <t>코미디 영화를 볼 때마다, 저는 많이 웃습니다.</t>
+  </si>
+  <si>
+    <t>영화를 보는 것은 스트레스를 해소하는 데 도움이 됩 니다.</t>
+  </si>
+  <si>
+    <t>코미디 영화를 보는 것은 스트레스를 해소하는 것을 도와줍니다.</t>
+  </si>
+  <si>
+    <t>함께 코미디를 보는 것은 긴밀한 가족간 유대감을 형성하는 가장 좋은 방법 중 하나입니다.</t>
+  </si>
+  <si>
+    <t>Watching comedies together is one of the best ways to create a closer family bond.</t>
+  </si>
+  <si>
+    <t>Watching comedies helps me get rid of my stress.</t>
+  </si>
+  <si>
+    <t>Whenever I watch comedies, I laugh a lot.</t>
+  </si>
+  <si>
+    <t>I like comedies the most.</t>
+  </si>
+  <si>
+    <t>I’m not picky about movies, but my favorite kind of film is comedies for a couple of reasons.</t>
+  </si>
+  <si>
+    <t>Second, since most comedies are neither gory nor violent, I can watch them with my family.</t>
+  </si>
+  <si>
+    <t>I can definitely say that watching comedies together is one of the best ways to create a closer family bond.</t>
+  </si>
+  <si>
+    <t>Watching movies is helpful for relieving my stress.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 영화에 까다로운 편은 아니지만, 몇 가지 이유로 코미디 영화가 가장 좋아하는 영화 종류입니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 저를 빵 터지게 만들기 때문에 코미디 영화를 보는 것은 스트레스를 해소하는데 도움이 됩니다.</t>
+  </si>
+  <si>
+    <t>웃음이 스트레스를 해소하는 가장 즐거운 방 법인 것을 아시잖아요, 그쵸?</t>
+  </si>
+  <si>
+    <t>First, watching comedies helps me get rid of my stress because they crack me up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You know, laughing is one of the most enjoyable ways to relieve stress, right?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘째로, 코미디 영화는 폭력이 난무하거나 난폭하지 않기 때문에 가족과 함께 볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>함 께 코미디 영화를 보는 것은 가족 간에 더 가까운 유대감을 형성하는 가장 좋은 방법 중 하나라고 분명히 말할수 있습니다.</t>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝으로, 당신은 영어를 매일 말해야 합니다.</t>
+  </si>
+  <si>
+    <t>Last but not least, you should speak English every day.</t>
+  </si>
+  <si>
+    <t>가격에 관해서는, 한식이 서양식보다 상대적으로 저렴합니다.</t>
+  </si>
+  <si>
+    <t>제가 가장 좋아하는 음식은 한식입 니다.</t>
+  </si>
+  <si>
+    <t>저는 어렸을 때부터 한식을 좋아했습니다.</t>
+  </si>
+  <si>
+    <t>한국인들의 기대수명은 약 세인데, 이는 그들의 식습관 때문입니다.</t>
+  </si>
+  <si>
+    <t>Life expectancy of South Koreans is around 83 years, and this is mostly due to their diet.</t>
+  </si>
+  <si>
+    <t>I’ve loved Korean food since I was a child.</t>
+  </si>
+  <si>
+    <t>My most favorite kind of food is Korean food.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When it comes to the price, Korean food is relatively cheaper than Western food.</t>
+  </si>
+  <si>
+    <t>저는 편식을 하는 사람은 아니지만, 제가 가장 좋아하는 음식은 한국 음식입니다.</t>
+  </si>
+  <si>
+    <t>다음과 같은 이유로 어릴 때부터 한국 음식 을 좋아했습니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 대부분의 한국 음식은 보통 건강하고 맛이 좋습니다.</t>
+  </si>
+  <si>
+    <t>대한민국 사람들의 기대 수명은 으f 83살 정도 인데, 제 생각에 이는 주로 사람들의 식습관 덕분인 것 같습니다.</t>
+  </si>
+  <si>
+    <t>또한, 저는 매운 음식을 즐기는 사람인데, 한국 음식은 양념이 강하기로 유명합니다.</t>
+  </si>
+  <si>
+    <t>마지막으로 중요한 점은, 가격을 생각했을 때 한국 음식이 서양 음식보다 상대적으로 더 저렴합니다.</t>
+  </si>
+  <si>
+    <t>I am not a picky eater, but my favorite kind of food is Korean.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’ve loved Korean food since I was a child for the following reasons.</t>
+  </si>
+  <si>
+    <t>First of all, most Korean foods are generally healthy and tasty at the same time.</t>
+  </si>
+  <si>
+    <t>Life expectancy of South Koreans is around 83 years, and this is mostly due to their diet I believe.</t>
+  </si>
+  <si>
+    <t>Also, I am the type of person who enjoys spicy food and Korean food is well-known for its spiciness.</t>
+  </si>
+  <si>
+    <t>Last but not least, when it comes to the price, Korean food is relatively cheaper than Western food.</t>
+  </si>
+  <si>
+    <t>There are many things that I like in my room.</t>
+  </si>
+  <si>
+    <t>It makes me feel good.</t>
+  </si>
+  <si>
+    <t>The place where I fe이 the coziest is my room.</t>
+  </si>
+  <si>
+    <t>My room is filled with things I like, such as my computer and my bed.</t>
+  </si>
+  <si>
+    <t>I like to watch YouTube videos while lying down on my bed.</t>
+  </si>
+  <si>
+    <t>저는 침대에 누워있는 동안에 유튜브 영상을 보는 것을 좋아합니다.</t>
+  </si>
+  <si>
+    <t>제 방은 컴퓨터와 침대와 같이 제가 좋아하는 것들로 가득 차 있습니다.</t>
+  </si>
+  <si>
+    <t>제가 가장 편안함을 느끼는 곳은 제 방입 니다.</t>
+  </si>
+  <si>
+    <t>저를 기분 좋게 만들어줍니다.</t>
+  </si>
+  <si>
+    <t>제 방에는 제가 좋아하는 것들이 많습니다.</t>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 몇 가지 이유로 집에서 제 방을 가장 좋아합니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 제 방은 컴퓨터나 침대와 같이 제가 좋아하는 것들로 채워져 있 습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 친구들과 함께 온라인 게임을 하는 것을 좋아하고, 이는 하루 중 제가 가장 좋아하는 순간입니다.</t>
+  </si>
+  <si>
+    <t>저는 또한 편안 한 침대 위에 누워서 유튜브 영상을 보는 것도좋아합니다.</t>
+  </si>
+  <si>
+    <t>두 번째 이유는제 방이 주는 느낌 때문입니다.</t>
+  </si>
+  <si>
+    <t>제 방은아주 아늑해서 그 앤에 있으면 그저 기분이 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러한 점들이 제가 제 방을 가장 좋아하는 이유입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The place where I feel the coziest in my house is my room for a couple of reasons.</t>
+  </si>
+  <si>
+    <t>I love playing online games with my friends. It is my favorite part of the day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I also like to watch YouTube videos while lying down on my comfortable bed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The second reason is the feeling that my room gives me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My room is so cozy that I just feel good when I am in my room.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those are the reasons why I like my room the most.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First, my room is filled with things I like, such as my computer and my bed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 건강에 좋은 음식을 먹으려 노력합니디-.</t>
+  </si>
+  <si>
+    <t>I try to eat healthy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I try not to drink a lot.</t>
+  </si>
+  <si>
+    <t>There are a couple of things I make sure to do in order to stay healthy.</t>
+  </si>
+  <si>
+    <t>I am what I eat.</t>
+  </si>
+  <si>
+    <t>I try to reduce the number of times I drink.</t>
+  </si>
+  <si>
+    <t>저는 술을 마시는 횟수를 줄이려고 노력합니다.</t>
+  </si>
+  <si>
+    <t>저 자신은 제가 먹는 것으로부터 시작됩 니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 건강을 유지하기 위해 꼭 하는 몇 가지가 있습니다.</t>
+  </si>
+  <si>
+    <t>저는 술을 많이 마시지 않으려고 노력합니다.</t>
+  </si>
+  <si>
+    <t>최근까지, 저는 제 건강을 그렇게 챙기지 않았습니다.</t>
+  </si>
+  <si>
+    <t>하지만, 나이가 들면서 건강 유지의 중요함을 깨닫게 되었고, 이를 위해 잊지 않고 하는 몇 가지 행동이 있습니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 저는 더 건강히 먹으려고 노력하고, 나 자신은 내가 먹는 것으로부터 시작된 다는 것을 잊지 않으려고 합니다.</t>
+  </si>
+  <si>
+    <t>더 건깅해지기 위해 고기는 덜 먹고, 야채는 더 먹으려고 노력하고, 술을 마시는 횟수를 줄였 습니다.</t>
+  </si>
+  <si>
+    <t>다음으로, 운동을 위해 헬스장에 가기 시작했습니다.</t>
+  </si>
+  <si>
+    <t>규칙적으로 운동을 하는 것은 확실히 몸매를 유지하도록 도와주 며, 건강한 신체를 갖는 것은 건강한 마음으로 이어집니다.</t>
+  </si>
+  <si>
+    <t>Up until recently, I hadn’t taken care of my health that much.</t>
+  </si>
+  <si>
+    <t>However, I realized the importance of staying healthy as I got older, and there are a couple of things I make s니re to do in order to stay healthy.</t>
+  </si>
+  <si>
+    <t>First, I try to eat healthier, and keep in mind I am what I eat.</t>
+  </si>
+  <si>
+    <t>I try to eat less meat and more vegetables to become healthier, and I’ve reduced the number of times I drink.</t>
+  </si>
+  <si>
+    <t>Next, I started going to the gym to exercise.</t>
+  </si>
+  <si>
+    <t>Working out on a regular basis definitely helps me stay in shape, and having a healthier body leads to a healthier mind.</t>
+  </si>
+  <si>
+    <t>stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙적으로 운동하는 것은 몸매를 유지하게 해줍니다.</t>
+  </si>
+  <si>
+    <t>친구들과 어울리는 것은 기분을 좋게 만듭니다.</t>
+  </si>
+  <si>
+    <t>제가 곤경에 처할 때마다 그들을 만납니다.</t>
+  </si>
+  <si>
+    <t>제가 집중해야 하는 것은 운동 루틴 뿐입 니다.</t>
+  </si>
+  <si>
+    <t>제 친구들은 문제를 해결하는 방법에 대한 현명한 충고를 잘 해줍니다.</t>
+  </si>
+  <si>
+    <t>My friends are good at giving me wise advice on how to solve my problems.</t>
+  </si>
+  <si>
+    <t>The only thing that I have to focus on is my workout routine.</t>
+  </si>
+  <si>
+    <t>I meet them whenever I’m in trouble.</t>
+  </si>
+  <si>
+    <t>Hanging out with my friends makes me feel good.</t>
+  </si>
+  <si>
+    <t>Working out regularly allows me to stay in shape.</t>
+  </si>
+  <si>
+    <t>제가 스트레스 해소를 위해 하는 두세 가지 활동들이 있는데, 다른 사람들이 하는 활동과 비슷하리라 생각합니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 운 동은 스트레스를 해소시켜주기 때문에, 저는 스트레스를 받을 때면 헬스장에 갑니다.</t>
+  </si>
+  <si>
+    <t>운동을 하는 동안 제가 집중해야 하는 것 은 운동 루틴 뿐이기 때문에, 스트레스를 주는 일들을 잊는 데 도움이 됩니다.</t>
+  </si>
+  <si>
+    <t>다른 활동은 친구들을 만나는 것입니다.</t>
+  </si>
+  <si>
+    <t>보통 제 가 어려울 때 친구들에게 연락하고, 그들은 문제에 대해 현명한 조언을 잘 해줍니다.</t>
+  </si>
+  <si>
+    <t>친구들과 대화를 나눈 뒤에는 스트레스로 부터 회복하는 경향이 있습니다.</t>
+  </si>
+  <si>
+    <t>There are a couple of things I do in order to get rid of my stress, and I am sure they are similar to that of other people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First, working o니t relieves my stress, so I go to the gym whenever I get stressed out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While I work out, the only thing that I have to focus on is my workout routine, so it helps me forget about the things that stress me out.</t>
+  </si>
+  <si>
+    <t>The other thing is hanging out with my friends.</t>
+  </si>
+  <si>
+    <t>I usually reach out to them in difficulty, and they are good at giving me wise advice on how to solve my problems.</t>
+  </si>
+  <si>
+    <t>After having a conversation with them, I tend to recover from my stress.</t>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료들과 좋은 관계를 유지하는 것은 필수적입 니다.</t>
+  </si>
+  <si>
+    <t>저는 그들과 좋은 관계를 유지하기 위해 몇 가지를 합니다.</t>
+  </si>
+  <si>
+    <t>우리의 팀워크에 부정적인 영향을 줄 것입니다.</t>
+  </si>
+  <si>
+    <t>저는 제 동료들과 줗은 관계를 유지하는 것이 얼마나 중요한지 압니다.</t>
+  </si>
+  <si>
+    <t>하지 않으면, 우리의 팀워크에 부정적인 영향을 줄 것입니다.</t>
+  </si>
+  <si>
+    <t>I know how important it is to have a great relationship with my colleagues.</t>
+  </si>
+  <si>
+    <t>It will have a negative impact on our teamwork.</t>
+  </si>
+  <si>
+    <t>I do a couple of things to have a good relationship with them.</t>
+  </si>
+  <si>
+    <t>If I don’t, it would have a negative impact on our teamwork.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Having a good relationship with co-workers is essential.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 동료들과 좋은 관계를 유지하는 것이 얼마나 중요한지를 알고 있습니다.</t>
+  </si>
+  <si>
+    <t>따라서, 제 동료들과 좋은 관계를 유지하기 위해 하는 많은 것들이 있습니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 저는 존중하는 마음을 갖고 모두를 동등하게 대하려고 노력합니다.</t>
+  </si>
+  <si>
+    <t>만약 제가 모두를 동등 하게 대하지 않고, 특정 동료를 향한 편애를 드러낸다면, 우리의 팀워크에 부정적인 영향을 줄 것입니다.</t>
+  </si>
+  <si>
+    <t>둘째로, 저는 업무를 잘하는 동료를 칭찬하려고 합니다.</t>
+  </si>
+  <si>
+    <t>마땅한 일에 공로를 돌리는 것은 언제나 동료들사이에 유익한 존경심을 조성할 것입니다.</t>
+  </si>
+  <si>
+    <t>So, there are many things I do in order to keep a healthy relationship with my coworkers.</t>
+  </si>
+  <si>
+    <t>Second, I tend to praise coworkers who do well.</t>
+  </si>
+  <si>
+    <t>Giving credit where it is deserved will always create healthy respect among coworkers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I don’t treat everyone fairly and show favoritism toward particular coworkers, it would have a negative impact on our teamwork.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First of all, I try to treat everyone equally with respect.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>past</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 친구를 만날 예정이었지만, 일이 생겼습니다.</t>
+  </si>
+  <si>
+    <t>I was supposed to meet my friend, but something came up.</t>
+  </si>
+  <si>
+    <t>그 회의가 프로젝트에 부정적인 영향을 주었습니다.</t>
+  </si>
+  <si>
+    <t>The meeting had a negative effect on the project.</t>
+  </si>
+  <si>
+    <t>저는 그 일이 일어나는 데 많은 노력을 들였습니다.</t>
+  </si>
+  <si>
+    <t>I’ve put a lot of effort into making it happen.</t>
+  </si>
+  <si>
+    <t>She put a lot of effort into preparing for the presentation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 발표를 준비하는 데 많은 노력을 들였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 나이가 들어가면서,</t>
+  </si>
+  <si>
+    <t>비행기는 결국 지연되었습니다.</t>
+  </si>
+  <si>
+    <t>The flight ended up being delayed.</t>
+  </si>
+  <si>
+    <t>As I got older,</t>
+  </si>
+  <si>
+    <t>지난 겨울, 저는 제 고객과의 거래를 성사시키기 위해 출장을 갈 예정이었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 프로젝트를 아주 오랫동안 진행했기 때문 에, 출장을 떠나는 것이 매우 기뻤습니다.</t>
+  </si>
+  <si>
+    <t>거래를 성사시키기 위해 정말 많은 수고를 들였기 때문에 저에게는 정말 의미가 큰 일이었습니다.</t>
+  </si>
+  <si>
+    <t>하지만, 공항이 가까워지자 눈이 많이 내리기 시작했고 날씨가 더 악화되었기 때문에 저는 아주 불안해졌습니 다.</t>
+  </si>
+  <si>
+    <t>불행히도, 제 비행편은 지연됐고 이는 그 거래에 부정적인 영향을 미쳤습니다.</t>
+  </si>
+  <si>
+    <t>Last winter, I was scheduled to go on a business trip to close a deal with my client.</t>
+  </si>
+  <si>
+    <t>I was really excited about the business trip because I had been working on it for a long time.</t>
+  </si>
+  <si>
+    <t>Unfortunately, my flight ended up being delayed, and it had a negative effect on the deal.</t>
+  </si>
+  <si>
+    <t>However, as I got closer to the airport, it started snowing a lot and I became really anxious as the weather got worse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It meant a lot to me because I’d put a lot of effort into clinching the deal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최악의 여행은 작년에 가족들과 함께 괌에 방문했을 때입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괌은 돌고래 크루즈나 스노클링과 같은 멋진 활동으로 유명합니다.</t>
+  </si>
+  <si>
+    <t>돌고래를 가까이서 보고 싶었기 때문에, 우리는 돌고래 크루즈 티켓을 예약했습니다.</t>
+  </si>
+  <si>
+    <t>제가 여태까지 경험했던 최악의 여행이었습니다.</t>
+  </si>
+  <si>
+    <t>그 날 우리는 돌고래를 한 마리도 볼 수 없었습니다.</t>
+  </si>
+  <si>
+    <t>We weren’t able to see any dolphins that day.</t>
+  </si>
+  <si>
+    <t>That was the worst trip experience I’ve ever had.</t>
+  </si>
+  <si>
+    <t>We booked tickets for a dolphin cruise because we wanted to see them closely.</t>
+  </si>
+  <si>
+    <t>Guam is famous for cool activities such as dolphin cruises and snorkeling.</t>
+  </si>
+  <si>
+    <t>The worst trip that I took was when I visited Guam last year with my family.</t>
+  </si>
+  <si>
+    <t>저는 작년에 가족들과 함께 괌을 방문했습니다.</t>
+  </si>
+  <si>
+    <t>우리는 돌고래를 보기 위해 배를 타고 이동하는 활동인 돌고래 크루즈 티켓을 예약했습니다.</t>
+  </si>
+  <si>
+    <t>예산을 꽤 넘는 가격이었지만, 큰 기대를 갖고 있었기 때문에 괜찮았습니다.</t>
+  </si>
+  <si>
+    <t>활동을 하는 날 몇 분의 항해 후, 우 리는 폭풍우 경보를 받았고 항구로 다시 돌아오KH 했습니다.</t>
+  </si>
+  <si>
+    <t>그날 우리는 돌고래를 한 마리도 볼 수 없었고, 오랫동안 돌고래 보기를 기대해왔기 때문에 저는 굉장히 실망했습니다.</t>
+  </si>
+  <si>
+    <t>I visited Guam with my family last year.</t>
+  </si>
+  <si>
+    <t>We booked tkkets for a dolphin cruise, which is an activity where people ride on a boat to see dolphins.</t>
+  </si>
+  <si>
+    <t>On the day of the activity, after sailing for a few minutes, we received a storm alert and our boat had to return to port.</t>
+  </si>
+  <si>
+    <t>We weren’t able to see any dolphins that day, and I was really disappointed because I had been looking forward to seeing the dolphins for a long time.</t>
+  </si>
+  <si>
+    <t>Even though it was quite over my budget, I was okay because I had such high expectations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 근처에 공원이 있어서, 우리는 종종 산책하러 갑니다.</t>
+  </si>
+  <si>
+    <t>저는 무언가 특별한 것을 하고 싶었습니다.</t>
+  </si>
+  <si>
+    <t>저는 집에서 가까운 공원에 산책을 가기로 했습니다.</t>
+  </si>
+  <si>
+    <t>저는 가족들과 함께 귀중한 시간을 보낼 수 있어 감사했습니다.</t>
+  </si>
+  <si>
+    <t>그렇게 특별하지는 않은 것 같습니다.</t>
+  </si>
+  <si>
+    <t>It doesn’t sound that special.</t>
+  </si>
+  <si>
+    <t>I decided to go for a walk to a park which is close to my house.</t>
+  </si>
+  <si>
+    <t>I wanted to do something special.</t>
+  </si>
+  <si>
+    <t>There is a park near my house, so we often go there to take a walk.</t>
+  </si>
+  <si>
+    <t>I felt grateful for being able to spend quality time with my family.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말은 좋았지만, 특별한 걸 하진 않았습니다.</t>
+  </si>
+  <si>
+    <t>음, 이틀 동안 날씨가 좋아 제 가족과 저는 집에서 걸어서 갈 수 있는 거리의 공 원으로 산책을 가기로 했습니다.</t>
+  </si>
+  <si>
+    <t>원에 도착했을 때는 이미 화창한 날씨를 즐기며 산책을 하는 많은 사람들과 놀고 있는 아이 들이 있었습니다.</t>
+  </si>
+  <si>
+    <t>공원에서 몇 시간을 보내고는 우리가 가장 좋아하는 라라 파스타라는 레스토랑에 들러 저녁을 먹고 집으로 돌아왔습니다.</t>
+  </si>
+  <si>
+    <t>그렇게 특별하진 않지만, 가족들과 함께 귀중한 시간을 보낼 수 있어 감사한 주말이었습니다.</t>
+  </si>
+  <si>
+    <t>It was great, but I didn’t do anything special.</t>
+  </si>
+  <si>
+    <t>Well, the weather was great on both days, so my family and I decided to go for a walk to a park which is located within a walking distance of my house.</t>
+  </si>
+  <si>
+    <t>When we got there, there were already many people walking and kids playing while enjoying the great weather.</t>
+  </si>
+  <si>
+    <t>After spending a few hours in the park, we stopped by a restaurant called La La Pasta, which is my family’s favorite, for dinner and came back home.</t>
+  </si>
+  <si>
+    <t>It doesn’t sound that special, but I felt grateful for being able to spend quality time with my family.</t>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 외형 중 하나를 바꿀 수 있다면, 키를 바꾸고 싶습니다.</t>
+  </si>
+  <si>
+    <t>다음 휴가로 제주도에 가고 싶습니다.</t>
+  </si>
+  <si>
+    <t>그것을 생각하는 것만으로도 기분이 정말 좋습니다.</t>
+  </si>
+  <si>
+    <t>집을 소유하게 되는 것이 항상 저의 꿈이었습니다.</t>
+  </si>
+  <si>
+    <t>사회에 환원하는 것이 옳다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>I think it is right for me to give back to society.</t>
+  </si>
+  <si>
+    <t>It has always been my dream to become a homeowner.</t>
+  </si>
+  <si>
+    <t>Just thinking about it makes me feel really good.</t>
+  </si>
+  <si>
+    <t>If I could change one thing about my appearance, I would change my height.</t>
+  </si>
+  <si>
+    <t>I would like(love) to go to Jeju Island for my next vacation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와우, 생각만 하는 것으로도 기분이 정말 좋습니다!</t>
+  </si>
+  <si>
+    <t>첫째로, 저를 키워 주시고 오늘날의 저로 만들기 위해 그들의 삶을 아주 많 이 희생한 부모님에게 상금의 반을 드릴 것입니다.</t>
+  </si>
+  <si>
+    <t>그 다음으로, 주택 소유주가 되는 것이 늘 꿈이었기 때문에 가족을 위한 집 을 구매할 것입니다.</t>
+  </si>
+  <si>
+    <t>마지막으로, 남는 돈이 있다면 자선 단체에 전부를 기부할 것입니다.</t>
+  </si>
+  <si>
+    <t>도움이 필요한 사람이 많다는 것을 알고, 사회에 환원하는 것이 옳은 일이라고 생각하기 때문입니다.</t>
+  </si>
+  <si>
+    <t>Wow, just thinking about it makes me feel really good!</t>
+  </si>
+  <si>
+    <t>Lastly, if I have some money left over, I would like to donate all of it to charity.</t>
+  </si>
+  <si>
+    <t>I know there are many people who are in need, and I think it is right for me to give back to society.</t>
+  </si>
+  <si>
+    <t>Next, I would buy a home for my family because it has always been my dream to become a homeowner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First of all, I would give half of my winnings to my parents because they have sacrificed so much of their lives to raise me and make me into the person I am today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 일이 생기길 바라지만, 당첨 가능성이 매우 희박하다는 것을 알고 있습니다!</t>
+  </si>
+  <si>
+    <t>I wish this would happen to me, but I know there’s a fat chance of winning!</t>
+  </si>
+  <si>
+    <t>vacation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도는 한국에서 가장 인기 있는 관광지 중 하나입니다.</t>
+  </si>
+  <si>
+    <t>예산을 초과했지만, 저는 괜찮았습니다.</t>
+  </si>
+  <si>
+    <t>집에서 회사까지 가는 데 10분 걸립니다.</t>
+  </si>
+  <si>
+    <t>There is something to learn from this experience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 경험에서 배울 무언가가 있습니다.</t>
+  </si>
+  <si>
+    <t>결정을 내리기 전에 고려해야 할 것이 많습니다.</t>
+  </si>
+  <si>
+    <t>There are many things to consider before making a decision.</t>
+  </si>
+  <si>
+    <t>완전히 다른 나라에 있는느낌이 들 것입니다.</t>
+  </si>
+  <si>
+    <t>It takes 10 minutes from my house to my office.</t>
+  </si>
+  <si>
+    <t>Even though it was over my budget, I was okay.</t>
+  </si>
+  <si>
+    <t>You’ll feel like you’re in a whole other country.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeju Island is one of the most popular tourist destinations in Korea.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 다음 휴가로는 몇 가지 이유로 제주도에 가고 싶습니다.</t>
+  </si>
+  <si>
+    <t>째로, 이국적인 특색과 뛰어난 자연 경관으로 제주도는 한국에서 가장 인기있는 관광지 중 하나이고, 보고 즐길 것이 아주 많습니다.</t>
+  </si>
+  <si>
+    <t>둘째로, 서울에서 한 시간 정도의 비행 거리이지만, 야자 나 무와 바닷바람으로 완전히 다른 나라에 와있는 느낌을 받을 것입니다.</t>
+  </si>
+  <si>
+    <t>마지막으로, 제주도는 저와 같은 등산객이나 서핑을 좋 아하는 사람들에게 유명한데, 대한민국에서 가장 높은 산과 멋진 바다가 있기 때문입니다.</t>
+  </si>
+  <si>
+    <t>Lastly, it is popular among hikers and surfers like me because it has the highest mountain in South Korea and nice beaches.</t>
+  </si>
+  <si>
+    <t>For my next vacation, I would like to go to Jeju Island for a couple of reasons.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First of all, Jeju Island is one of the most popular vacation destinations in Korea with its exotic features and outstanding nature, and there are tons of things to see and do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second, although it is only an hour flight from Seoul, you’ll feel like you’re in a whole other country with its palm trees and sea breeze.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 수 있다면, 저는 한국의 교육 시스템을 바꾸고 싶습니다.</t>
+  </si>
+  <si>
+    <t>저는 새 직장에 적응하는 데 힘든 시간을 보내고 있습니다.</t>
+  </si>
+  <si>
+    <t>저는 금요일에만 청바지를 입을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>학생들은 그들이 원方匕 만큼 대학 입학 시험을 치를 수 있어야 합니다.</t>
+  </si>
+  <si>
+    <t>제 원하는 것은 오로지 학생들에게 기회를 더 주는 것입니다.</t>
+  </si>
+  <si>
+    <t>All I wish for is to give students more opportunities.</t>
+  </si>
+  <si>
+    <t>Students should be allowed to take the college entrance exam as many times as they want.</t>
+  </si>
+  <si>
+    <t>I’m only allowed to wear jeans on Fridays.</t>
+  </si>
+  <si>
+    <t>I’ve been having a hard time getting used to my new job.</t>
+  </si>
+  <si>
+    <t>If I could, I would change the Korean education system.</t>
+  </si>
+  <si>
+    <t>우리 나라에서 어떤 정책이든 변화시킬 수 있다면, 분명히 현재 교육 시스템과관련된 것일 겁니다.</t>
+  </si>
+  <si>
+    <t>굉장히 많은 한국 학생들이 큰 스트레스와 부담을 주는 엄격하고 경쟁이 과도한 교육 시스템으로 고통받고 있고, 이제는 시스템을 개혁해야 할 때인 것 같 습니다.</t>
+  </si>
+  <si>
+    <t>가장 첫째로, 학생들은 대학 입학 시험을 원하는 만큼 치를 수 있어야 합니다.</t>
+  </si>
+  <si>
+    <t>현재 모든 고등학교 졸업반의 학생들은 1 년에 이 시험을 치를 단 한 번의 기회를 갖고, 이것은 너무 가혹하다고 생각합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 바라는 바는 학생들에게 더 많은 기 회를 주는 것입 니다.</t>
+  </si>
+  <si>
+    <t>If I could change any policy in my country, it would definitely have to do with the current education system.</t>
+  </si>
+  <si>
+    <t>First and foremost, students should be allowed to take the college entrance exam as many times as they want.</t>
+  </si>
+  <si>
+    <t>Currently, all high school seniors are only given one chance to take the exam in a year, and I think this is too harsh on them.</t>
+  </si>
+  <si>
+    <t>Hundreds of thousands of students in Korea are suffering from a strict and overly competitive education system that is both stressful and demanding, and I think it is time to restructure the system.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,21 +1513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2E8B82-C1FA-4A08-A1B2-F576DBBE4546}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.4140625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="105.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9140625" customWidth="1"/>
+    <col min="2" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="105.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,13 +1535,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -543,13 +1552,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -557,13 +1569,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -571,13 +1586,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -585,13 +1603,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -599,108 +1620,2631 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
         <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" t="s">
+        <v>165</v>
+      </c>
+      <c r="E80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" t="s">
+        <v>208</v>
+      </c>
+      <c r="E99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" t="s">
+        <v>220</v>
+      </c>
+      <c r="E106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" t="s">
+        <v>230</v>
+      </c>
+      <c r="E110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" t="s">
+        <v>42</v>
+      </c>
+      <c r="D113" t="s">
+        <v>233</v>
+      </c>
+      <c r="E113" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" t="s">
+        <v>240</v>
+      </c>
+      <c r="E115" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" t="s">
+        <v>241</v>
+      </c>
+      <c r="E116" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" t="s">
+        <v>250</v>
+      </c>
+      <c r="E120" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" t="s">
+        <v>249</v>
+      </c>
+      <c r="D121" t="s">
+        <v>251</v>
+      </c>
+      <c r="E121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" t="s">
+        <v>252</v>
+      </c>
+      <c r="E122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" t="s">
+        <v>249</v>
+      </c>
+      <c r="D127" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" t="s">
+        <v>291</v>
+      </c>
+      <c r="D130" t="s">
+        <v>271</v>
+      </c>
+      <c r="E130" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131" t="s">
+        <v>272</v>
+      </c>
+      <c r="E131" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" t="s">
+        <v>291</v>
+      </c>
+      <c r="D132" t="s">
+        <v>273</v>
+      </c>
+      <c r="E132" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" t="s">
+        <v>291</v>
+      </c>
+      <c r="D133" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
+        <v>291</v>
+      </c>
+      <c r="D134" t="s">
+        <v>275</v>
+      </c>
+      <c r="E134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" t="s">
+        <v>291</v>
+      </c>
+      <c r="D135" t="s">
+        <v>281</v>
+      </c>
+      <c r="E135" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
+        <v>291</v>
+      </c>
+      <c r="D136" t="s">
+        <v>282</v>
+      </c>
+      <c r="E136" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" t="s">
+        <v>291</v>
+      </c>
+      <c r="D137" t="s">
+        <v>283</v>
+      </c>
+      <c r="E137" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" t="s">
+        <v>291</v>
+      </c>
+      <c r="D138" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" t="s">
+        <v>291</v>
+      </c>
+      <c r="D139" t="s">
+        <v>285</v>
+      </c>
+      <c r="E139" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" t="s">
+        <v>291</v>
+      </c>
+      <c r="D140" t="s">
+        <v>292</v>
+      </c>
+      <c r="E140" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>270</v>
+      </c>
+      <c r="C141" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141" t="s">
+        <v>295</v>
+      </c>
+      <c r="E141" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" t="s">
+        <v>294</v>
+      </c>
+      <c r="D142" t="s">
+        <v>296</v>
+      </c>
+      <c r="E142" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>270</v>
+      </c>
+      <c r="C143" t="s">
+        <v>294</v>
+      </c>
+      <c r="D143" t="s">
+        <v>297</v>
+      </c>
+      <c r="E143" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" t="s">
+        <v>294</v>
+      </c>
+      <c r="D144" t="s">
+        <v>299</v>
+      </c>
+      <c r="E144" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" t="s">
+        <v>294</v>
+      </c>
+      <c r="D145" t="s">
+        <v>300</v>
+      </c>
+      <c r="E145" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" t="s">
+        <v>294</v>
+      </c>
+      <c r="D146" t="s">
+        <v>302</v>
+      </c>
+      <c r="E146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>270</v>
+      </c>
+      <c r="C147" t="s">
+        <v>294</v>
+      </c>
+      <c r="D147" t="s">
+        <v>307</v>
+      </c>
+      <c r="E147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" t="s">
+        <v>308</v>
+      </c>
+      <c r="E148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>270</v>
+      </c>
+      <c r="C149" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" t="s">
+        <v>309</v>
+      </c>
+      <c r="E149" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" t="s">
+        <v>294</v>
+      </c>
+      <c r="D150" t="s">
+        <v>310</v>
+      </c>
+      <c r="E150" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>270</v>
+      </c>
+      <c r="C151" t="s">
+        <v>315</v>
+      </c>
+      <c r="D151" t="s">
+        <v>316</v>
+      </c>
+      <c r="E151" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>270</v>
+      </c>
+      <c r="C152" t="s">
+        <v>315</v>
+      </c>
+      <c r="D152" t="s">
+        <v>317</v>
+      </c>
+      <c r="E152" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" t="s">
+        <v>315</v>
+      </c>
+      <c r="D153" t="s">
+        <v>318</v>
+      </c>
+      <c r="E153" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" t="s">
+        <v>315</v>
+      </c>
+      <c r="D154" t="s">
+        <v>319</v>
+      </c>
+      <c r="E154" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>270</v>
+      </c>
+      <c r="C155" t="s">
+        <v>315</v>
+      </c>
+      <c r="D155" t="s">
+        <v>320</v>
+      </c>
+      <c r="E155" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>270</v>
+      </c>
+      <c r="C156" t="s">
+        <v>315</v>
+      </c>
+      <c r="D156" t="s">
+        <v>326</v>
+      </c>
+      <c r="E156" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>270</v>
+      </c>
+      <c r="C157" t="s">
+        <v>315</v>
+      </c>
+      <c r="D157" t="s">
+        <v>327</v>
+      </c>
+      <c r="E157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>270</v>
+      </c>
+      <c r="C158" t="s">
+        <v>315</v>
+      </c>
+      <c r="D158" t="s">
+        <v>328</v>
+      </c>
+      <c r="E158" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" t="s">
+        <v>315</v>
+      </c>
+      <c r="D159" t="s">
+        <v>329</v>
+      </c>
+      <c r="E159" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" t="s">
+        <v>315</v>
+      </c>
+      <c r="D160" t="s">
+        <v>330</v>
+      </c>
+      <c r="E160" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/daily_study.xlsx
+++ b/app/src/main/assets/daily_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spa_study_app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D995F18C-4FC7-49AF-8ECF-198A3870473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E1EAE3-A5F2-45B9-889D-1E0D6B2EC0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BDCA26F9-94D6-438A-BAD1-7800926BE735}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="1453">
   <si>
     <t>personal_question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3636,6 +3636,998 @@
   <si>
     <t>how_to_pay</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There’s an application called Samsung Pay.</t>
+  </si>
+  <si>
+    <t>Even if I lose my card, no one can use that card.</t>
+  </si>
+  <si>
+    <t>Using credit cards is way better when it comes to portability.</t>
+  </si>
+  <si>
+    <t>When it comes to studying abroad, there are more advantages than disadvantages.</t>
+  </si>
+  <si>
+    <t>If you report your loss to the credit card company, it prevents others from using that card.</t>
+  </si>
+  <si>
+    <t>삼성 페이라는 애플리케이션이 있습니다.</t>
+  </si>
+  <si>
+    <t>제가 카드를 잃어버리더라도, 아무도 그 카드를 사용할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>신용카드를 사용하는 것은 휴대성에 있어 훨씬 좋습니다.</t>
+  </si>
+  <si>
+    <t>해외 유학에 있어서는, 단점보다 장점이 더 많습니다.</t>
+  </si>
+  <si>
+    <t>신용카드사에 분실신고를 하면, 다른 사람이 그 카드를 사용하는 것을 막아줍니다.</t>
+  </si>
+  <si>
+    <t>Would you rather use cash or credit cards?</t>
+  </si>
+  <si>
+    <t>현금과 신용카드 중 어느 것을 사용하겠어요?</t>
+  </si>
+  <si>
+    <t>I like using credit cards.</t>
+  </si>
+  <si>
+    <t>First, they are easy to carry around.</t>
+  </si>
+  <si>
+    <t>Also, there's an application called Samsung Pay, so I can use my phone when I pay for something.</t>
+  </si>
+  <si>
+    <t>Second, credit cards are safer.</t>
+  </si>
+  <si>
+    <t>Even if I lose one, no one can use that card if I report my loss.</t>
+  </si>
+  <si>
+    <t>저는 신용카드를 사용하는 것이 좋습니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 신용카드는 들고 다니기에 편리합니다.</t>
+  </si>
+  <si>
+    <t>또한, 삼성 페이라는 애플리케이션이 있어서 무언가를 위해 지불할 때 휴대폰을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>둘째로, 신용카드는 더 안전합니다.</t>
+  </si>
+  <si>
+    <t>제가 카드를 잃어버린다고 하더라도, 분실신고를 하면 아무도 그 카드를 사용할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>way_to_life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I prefer to use credit cards for a couple of reasons.</t>
+  </si>
+  <si>
+    <t>First, using credit cards is way better when it comes to portability.</t>
+  </si>
+  <si>
+    <t>What I mean is that I don’t have to carry a load of cash all the time.</t>
+  </si>
+  <si>
+    <t>Also, as technology advances, I can register my credit cards into my phone by using applications like Samsung Pay.</t>
+  </si>
+  <si>
+    <t>This way, all I need is my phone when I have to pay for something.</t>
+  </si>
+  <si>
+    <t>Next, credit cards are safer because if you lose them, you can report your loss to the credit card company and prevent others from using that card.</t>
+  </si>
+  <si>
+    <t>And, you can always get a replacement if you don’t find them.</t>
+  </si>
+  <si>
+    <t>저는 몇 가지 이유로 신용카드를 사용하는 것을 선호합니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 신용카드를 사용하는 것은 휴대성에 있어 훨씬 낫습니다.</t>
+  </si>
+  <si>
+    <t>제가 의미하는 것은 항상 많은 현금을 들고 다닐 필요가 없다는 뜻입니다.</t>
+  </si>
+  <si>
+    <t>또한, 기술이 발전함에 따라 삼성 페이와 같은 애플리케이션을 사용하여 신용카드를 휴대폰에 등록할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>이렇게 하면, 무언가를 위해 지불할 때 휴대폰만 있으면 됩니다.</t>
+  </si>
+  <si>
+    <t>다음으로, 신용카드는 잃어버려도 신용카드사에 분실신고를 하고 다른 사람들이 사용하지 못하게 막을 수 있기 때문에 더 안전합니다.</t>
+  </si>
+  <si>
+    <t>또한, 찾지 못한다고 해도 항상 새 카드를 발급받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>I prefer to live a family life for a couple of reasons.</t>
+  </si>
+  <si>
+    <t>저는 몇 가지 이유로 가족과 함께 사는 것을 선호합니다.</t>
+  </si>
+  <si>
+    <t>I love spending a lot of time with my family members.</t>
+  </si>
+  <si>
+    <t>저는 가족과 함께 많은 시간을 보내는 것을 좋아합니다.</t>
+  </si>
+  <si>
+    <t>Spending time with my family makes us get closer.</t>
+  </si>
+  <si>
+    <t>가족과 시간을 보내는 것은 우리가 더 친해지게 합니다.</t>
+  </si>
+  <si>
+    <t>I like the feeling that I have people who I can rely on.</t>
+  </si>
+  <si>
+    <t>저는 의지할 수 있는 사람들이 있다는 느낌을 좋아합니다.</t>
+  </si>
+  <si>
+    <t>Last but not least, household chores can be divided among family members.</t>
+  </si>
+  <si>
+    <t>마지막으로, 집안일은 가족 구성원들과 나눠서 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Tell me about your preference between family life and single life.</t>
+  </si>
+  <si>
+    <t>가족과 함께 사는 것과 혼자 사는 것 중에서 당신이 선호하는 것에 대해 말해주세요.</t>
+  </si>
+  <si>
+    <t>First, I love spending a lot of time with my family members because it makes us get closer.</t>
+  </si>
+  <si>
+    <t>Second, I like the feeling that I have people who I can rely on.</t>
+  </si>
+  <si>
+    <t>Lastly, I can share housework with my family members.</t>
+  </si>
+  <si>
+    <t>첫째로, 저는 가족과 함께 많은 시간을 보내는 것을 좋아하는데, 이는 우리가 가까워질 수 있기 때문입니다.</t>
+  </si>
+  <si>
+    <t>둘째로, 저는 제가 의지할 수 있는 사람들이 있다는 느낌을 좋아합니다.</t>
+  </si>
+  <si>
+    <t>마지막으로, 가족 구성원들과 집안일을 나눠서 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>There are many differences between family life and single life, and let me tell you the differences by explaining what I prefer.</t>
+  </si>
+  <si>
+    <t>For me, I prefer to live a family life for a couple of reasons.</t>
+  </si>
+  <si>
+    <t>First, I love spending a lot of time doing things together with my family members because this helps create a sense of belonging among family members.</t>
+  </si>
+  <si>
+    <t>Also, it is always nice to know that you have people to trust and rely on.</t>
+  </si>
+  <si>
+    <t>Last but not least, household chores can be divided among family members and this can put less burden on everyone.</t>
+  </si>
+  <si>
+    <t>가족과 함께 사는 것과 혼자 사는 것에는 차이점이 많은데, 제가 선호하는 것을 설명하면서 차이점에 대해 알려드리겠습니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 저는 가족과 함께 많은 시간을 보내는 것을 좋아하는데, 가족 구성원 간에 소속감을 기르는 데 도움이 되기 때문입니다.</t>
+  </si>
+  <si>
+    <t>또한, 신뢰하고 의지할 사람들이 있다는 것을 아는 것은 항상 좋습니다.</t>
+  </si>
+  <si>
+    <t>마지막으로, 집안일을 나눠서 할 수 있는데, 이로써 모두가 부담을 덜 수 있습니다.</t>
+  </si>
+  <si>
+    <t>agree_or_not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the disadvantages of studying abroad is that it costs a lot of money.</t>
+  </si>
+  <si>
+    <t>유학의 단점 중 하나는 돈이 많이 든다는 것입니다.</t>
+  </si>
+  <si>
+    <t>It will cost you a lot of money to enter graduate school.</t>
+  </si>
+  <si>
+    <t>대학원에 입학하는 데 많은 비용이 듭니다.</t>
+  </si>
+  <si>
+    <t>Studying abroad makes it possible for people to learn the language and understand the culture at the same time.</t>
+  </si>
+  <si>
+    <t>유학의 장점 중 하나는 언어를 배우는 동시에 문화를 이해하는 것을 가능하게 한다는 점입니다.</t>
+  </si>
+  <si>
+    <t>It’s not too much to say that studying abroad is all about money.</t>
+  </si>
+  <si>
+    <t>유학은 돈이 전부라고 해도 과언이 아닙니다.</t>
+  </si>
+  <si>
+    <t>You will end up spending a whole lot money.</t>
+  </si>
+  <si>
+    <t>결국 아주 많은 돈을 쓰게 될 겁니다.</t>
+  </si>
+  <si>
+    <t>What are the advantages and disadvantages of studying abroad?</t>
+  </si>
+  <si>
+    <t>해외 유학의 장단점은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>This is very important because they are closely related.</t>
+  </si>
+  <si>
+    <t>However, the disadvantage is that studying abroad is very costly.</t>
+  </si>
+  <si>
+    <t>It costs an arm and a leg. Plus, people can feel lonely and homesick.</t>
+  </si>
+  <si>
+    <t>One advantage is that people can learn the language and the culture at the same time.</t>
+  </si>
+  <si>
+    <t>한 가지 장점은 언어와 문화를 동시에 배울 수 있다는 것입니다.</t>
+  </si>
+  <si>
+    <t>이것은 매우 중요한데, 언어와 문화는 밀접한 관련이 있기 때문입니다.</t>
+  </si>
+  <si>
+    <t>그러나, 유학은 비용이 많이 든다는 단점이 있습니다.</t>
+  </si>
+  <si>
+    <t>돈이 엄청나게 많이 듭니다. 게다가, 사람들은 외로움을 느끼고 향수병에 걸릴 수 있습니다.</t>
+  </si>
+  <si>
+    <t>However, there are also disadvantages.</t>
+  </si>
+  <si>
+    <t>You will end up spending a whole lot of money.</t>
+  </si>
+  <si>
+    <t>Plus, a person introduced to a new environment will likely feel lonely and homesick.</t>
+  </si>
+  <si>
+    <t>One of the advantages is that it makes it possible for people to learn the language and understand the culture at the same time.</t>
+  </si>
+  <si>
+    <t>It’s obvious that the culture and the language are closely associated with each other, so this opportunity can be a big advantage of studying abroad.</t>
+  </si>
+  <si>
+    <t>In particular, this is virtually impossible if you study domestically because you are not exposed to a new environment.</t>
+  </si>
+  <si>
+    <t>장점 중 하나는 언어를 배우는 동시에 문화도 함께 이해할 수 있다는 점입니다.</t>
+  </si>
+  <si>
+    <t>문화와 언어가 서로 밀접한 관련이 있다는 것이 분명하기 때문에, 이러한 기회는 유학의 아주 큰 장점이 될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>특히 국내에서 공부하면 새로운 환경에 노출되지 않기 때문에 이것(언어를 배우고 문화를 이해하는 것)이 사실상 불가능합니다.</t>
+  </si>
+  <si>
+    <t>유학의 대부분이 돈이라고 해도 과언이 아닙니다.</t>
+  </si>
+  <si>
+    <t>결국 아주 많은 돈을 소비하게 될 것입니다.</t>
+  </si>
+  <si>
+    <t>게다가, 새로운 환경을 접하는 사람은 외롭고 향수병에 걸릴 것입니다.</t>
+  </si>
+  <si>
+    <t>work_at_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To talk about the pros first, companies can save money on office furniture and supplies.</t>
+  </si>
+  <si>
+    <t>먼저 찬성 의견에 대해 말하자면, 기업들은 사무용 가구와 사무용품에 대한 비용을 절약할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Companies might have difficulty in having an urgent meeting or presentation.</t>
+  </si>
+  <si>
+    <t>기업들은 긴급 회의나 발표를 하는 데 어려움을 겪을 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>Telecommuting systems might affect both employees and employers negatively(positively).</t>
+  </si>
+  <si>
+    <t>재택근무 시스템은 고용주와 고용주 모두에게 부정적으로(긍정적으로) 영향을 줄 수 있습니다.</t>
+  </si>
+  <si>
+    <t>In the employers’ perspective, they can save money by not having to buy office furniture and supplies for employees.</t>
+  </si>
+  <si>
+    <t>고용주들의 관점에서 보면, 그들은 직원들을 위한 사무용 가구나 사무용품을 구매할 필요가 없으므로 비용을 절약할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>There are also drawbacks to telecommuting.</t>
+  </si>
+  <si>
+    <t>재택근무의 단점도 있습니다.</t>
+  </si>
+  <si>
+    <t>Many companies now offer telecommuting jobs to increase work efficiency. What are the pros and cons of telecommuting?</t>
+  </si>
+  <si>
+    <t>이제 많은 기업들이 업무의 효율성을 높이기 위해 재택근무 일자리를 제공합니다. 재택근무의 찬성과 반대 의견에는 어떤 것들이 있을까요?</t>
+  </si>
+  <si>
+    <t>And, employees can save time because they don’t have to go to the office.</t>
+  </si>
+  <si>
+    <t>However, companies might have difficulty in having an urgent meeting or presentation.</t>
+  </si>
+  <si>
+    <t>Also, employees can be easily distracted at home and it might affect them negatively.</t>
+  </si>
+  <si>
+    <t>먼저 찬성 의견에 대해 말하겠습니다.</t>
+  </si>
+  <si>
+    <t>또한, 직원들은 회사로 출근하지 않아도 되기 때문에 시간을 절약할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그러나, 기업들은 긴급 회의나 발표를 하는 데 어려움을 겪을 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>또한, 직원들은 집에서 쉽게 주의가 흐트러질 수 있고, 이는 부정적인 영향을 줄 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>먼저 찬성 의견에 대해 말하겠습니다. 기업들은 사무용 가구와 사무용품에 대한 비용을 절약할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>way_to_study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me talk about the pros first.</t>
+  </si>
+  <si>
+    <t>In the employees’ perspective, they can save time by not having to go through heavy traffic jams when they commute.</t>
+  </si>
+  <si>
+    <t>However, there are also drawbacks to telecommuting.</t>
+  </si>
+  <si>
+    <t>Not being physically present in the office can prevent employees from holding emergency conferences or seminars.</t>
+  </si>
+  <si>
+    <t>Also, there could be distractions at home, such as TV and children, and this could affect employees’ work efficiency negatively.</t>
+  </si>
+  <si>
+    <t>고용주들의 관점에서 보면, 그들은 직원들을 위한 사무용 가구나 사무용품을 구매할 필요가 없어서 비용을 절약할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>고용인들의 관점에서 보면, 그들은 출근하느라 극심한 교통체증을 겪지 않아도 되기 때문에 시간을 절약할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그러나, 재택근무의 단점도 있습니다.</t>
+  </si>
+  <si>
+    <t>직원들이 실제로 사무실에 출근하지 않으면 긴급 회의나 세미나를 할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>또한, 집에는 TV나 아이들과 같이 집중을 방해하는 것이 있을 수 있는데, 이는 직원들의 업무 효율성에 부정적인 영향을 줄 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>Let me talk about the advantages first.</t>
+  </si>
+  <si>
+    <t>먼저 장점에 대해 말하겠습니다.</t>
+  </si>
+  <si>
+    <t>Online classes are normally cheaper than offline classes.</t>
+  </si>
+  <si>
+    <t>온라인 강의는 일반적으로 현장 강의보다 저렴합니다.</t>
+  </si>
+  <si>
+    <t>People do not have to be physically present to take courses, which means you are not restrained from taking classes at any time from anywhere.</t>
+  </si>
+  <si>
+    <t>사람들은 수업을 수강하기 위해 실제로 참석할 필요가 없는데, 이는 온라인 강의를 수강하는 데 시간과 장소의 제약이 없다는 뜻입니다.</t>
+  </si>
+  <si>
+    <t>The worst part about online classes is that it wouldn’t be very easy for you to interact with the teacher.</t>
+  </si>
+  <si>
+    <t>온라인 강의의 가장 큰 단점은 교사와 상호작용하는 것이 매우 쉽지는 않다는 점입니다.</t>
+  </si>
+  <si>
+    <t>Online classes cost less, so people end up not completing the course.</t>
+  </si>
+  <si>
+    <t>온라인 강의는 저렴해서, 사람들은 결국 완강하지 않습니다.</t>
+  </si>
+  <si>
+    <t>Tell me about the advantages and disadvantages of taking online courses.</t>
+  </si>
+  <si>
+    <t>온라인 강의를 수강하는 것의 장단점에 대해 말해주세요.</t>
+  </si>
+  <si>
+    <t>There are a few advantages and disadvantages of taking online classes.</t>
+  </si>
+  <si>
+    <t>First, people are not restrained from taking classes at any time from anywhere, which means you do not have to be physically present to take courses.</t>
+  </si>
+  <si>
+    <t>Also, online classes are generally cheaper than offline courses, so you can save a lot of money.</t>
+  </si>
+  <si>
+    <t>Next, let me talk about the disadvantages.</t>
+  </si>
+  <si>
+    <t>The worst part about online classes is that it wouldn’t be very easy for you to interact with the teacher or classmates instantaneously.</t>
+  </si>
+  <si>
+    <t>Also, because online classes cost less, people tend to not take the classes seriously, and end up not completing the course.</t>
+  </si>
+  <si>
+    <t>온라인 강의를 수강하는 것에는 몇 가지 장단점이 있습니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 온라인 강의를 수강하는 데는 시간과 장소의 제약이 없는데, 이는 수업을 수강하기 위해서 실제로 참석할 필요가 없다는 뜻입니다.</t>
+  </si>
+  <si>
+    <t>또한, 온라인 강의는 일반적으로 오프라인 강의보다 저렴해서 많은 돈을 절약할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>다음으로, 단점에 대해 알려드리겠습니다.</t>
+  </si>
+  <si>
+    <t>온라인 강의의 가장 큰 단점은 선생님이나 반 친구들과 즉각적으로 소통하기가 쉽지는 않다는 점입니다.</t>
+  </si>
+  <si>
+    <t>또한, 온라인 강의에 비용이 적게 들기 때문에 사람들은 강의를 열심히 수강하지 않고, 결국 완강하지 않게 되는 경향이 있습니다.</t>
+  </si>
+  <si>
+    <t>First, people can take classes anywhere at any time.</t>
+  </si>
+  <si>
+    <t>Also, you can save money because online classes are normally cheaper than offline classes.</t>
+  </si>
+  <si>
+    <t>However, you cannot interact with the teacher or classmates instantaneously.</t>
+  </si>
+  <si>
+    <t>Also, people tend not to try hard because it’s cheap.</t>
+  </si>
+  <si>
+    <t>첫째로, 온라인 강의는 언제 어디서든 수강할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>또한, 온라인 강의는 일반적으로 오프라인 강의보다 저렴하기 때문에 돈을 절약할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그러나, 선생님이나 반 친구들과 즉각적으로 소통할 수는 없습니다.</t>
+  </si>
+  <si>
+    <t>또한, 저렴하다는 이유로 열심히 하지 않는 경향도 있습니다.</t>
+  </si>
+  <si>
+    <t>dscribe_graph_photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a bar graph about 주제(제목).</t>
+  </si>
+  <si>
+    <t>이것은 ~에 관한 바 그래프입니다.</t>
+  </si>
+  <si>
+    <t>The vertical(horizontal) axis represents _____.</t>
+  </si>
+  <si>
+    <t>세로(가로)축은 ~을(를) 나타냅니다.</t>
+  </si>
+  <si>
+    <t>A placed first(last) out of all _____.</t>
+  </si>
+  <si>
+    <t>A가 ~중에서 가장 첫 번째(마지막)으로 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>A is followed by B.</t>
+  </si>
+  <si>
+    <t>B는 A 다음입니다.</t>
+  </si>
+  <si>
+    <t>_____, while 주어 + 동사 ~.</t>
+  </si>
+  <si>
+    <t>~, 반면에 주어는 ~합니다.</t>
+  </si>
+  <si>
+    <t>Please describe the graph in as much detail as you can.</t>
+  </si>
+  <si>
+    <t>그래프를 할 수 있는 만큼 자세히 묘사해 주세요.</t>
+  </si>
+  <si>
+    <t>1_bar_1</t>
+  </si>
+  <si>
+    <t>1_bar_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a bar graph about different factors that travelers consider when choosing travel destination by gender.</t>
+  </si>
+  <si>
+    <t>It was surveyed among 4,000 travelers.</t>
+  </si>
+  <si>
+    <t>The vertical axis represents the number of responses, while the horizontal axis represents different factors.</t>
+  </si>
+  <si>
+    <t>For male travelers, budget was the biggest factor to be considered, while weather was the biggest factor for female travelers.</t>
+  </si>
+  <si>
+    <t>For both male and female travelers, language was the least important factor to be considered when traveling.</t>
+  </si>
+  <si>
+    <t>이것은 여행지 선택 시 성별에 따른 고려 요소에 대한 바 그래프입니다.</t>
+  </si>
+  <si>
+    <t>4,000명의 여행자들을 대상으로 설문 조사가 진행됐습니다.</t>
+  </si>
+  <si>
+    <t>세로축은 응답자 수를 의미하며, 가로축은 다양한 요소들을 의미합니다.</t>
+  </si>
+  <si>
+    <t>남성 여행자에게는 예산이 가장 중요한 요소로 꼽혔으며, 여성 여행자에게는 기후가 가장 중요한 요소로 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>남녀 모두에게 언어는 여행 시 가장 덜 중요한 요소로 작용했습니다.</t>
+  </si>
+  <si>
+    <t>This is a bar graph about factors when choosing travel destination by gender.</t>
+  </si>
+  <si>
+    <t>The vertical axis represents the number of people, and the horizontal axis represents different factors.</t>
+  </si>
+  <si>
+    <t>According to the graph, budget placed first out of all the factors for male travelers, and weather placed first for female travelers.</t>
+  </si>
+  <si>
+    <t>Language placed last out of all the factors for both male and female travelers.</t>
+  </si>
+  <si>
+    <t>세로축은 응답자 수를 의미하며, 가로축은 다양한 고려 요소들을 의미합니다.</t>
+  </si>
+  <si>
+    <t>그래프에 따르면, 예산은 남성에게서 모든 요소들 중 첫 번째로 꼽혔고, 기후는 여성에게서 가장 첫 번째 요소로 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>언어는 남성과 여성 모두에게 가장 마지막 순위로 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a bar graph about cars sold in Korea in 2019 by manufacturer.</t>
+  </si>
+  <si>
+    <t>The vertical axis represents the percentages, and the horizontal axis represents the manufacturers.</t>
+  </si>
+  <si>
+    <t>According to the graph, Hyundai placed first out of all the manufacturers, and Audi placed last out of all the manufacturers.</t>
+  </si>
+  <si>
+    <t>이것은 제조사별 2019년 한국 자동차 판매량에 대한 바 그래프입니다.</t>
+  </si>
+  <si>
+    <t>세로축은 퍼센트를 의미하고, 가로축은 제조사를 의미합니다.</t>
+  </si>
+  <si>
+    <t>그래프에 따르면, 현대가 모든 제조사를 중 첫 번째로 꼽혔고, 아우디는 마지막 순위로 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>This is a bar graph that illustrates the number of cars sold in Korea by manufacturers in 2019.</t>
+  </si>
+  <si>
+    <t>The vertical axis represents the percentage of total sales, while the horizontal axis represents the manufacturers.</t>
+  </si>
+  <si>
+    <t>According to the graph, Hyundai is the manufacturer that sold the largest number of cars in Korea with more than 30 percent, and it is followed by Kia with 25 percent.</t>
+  </si>
+  <si>
+    <t>On the other hand, Audi sold the least number of cars in Korea.</t>
+  </si>
+  <si>
+    <t>이것은 제조사별 2019년 한국 자동차 판매량을 보여주는 바 그래프입니다.</t>
+  </si>
+  <si>
+    <t>세로축은 총 판매량의 퍼센트를 의미하며, 가로축은 제조사를 의미합니다.</t>
+  </si>
+  <si>
+    <t>그래프에 따르면, 현대는 30% 이상의 수치를 보이며 가장 많은 자동차를 판매한 제조사로 꼽히며, 그 뒤를 25%의 기아차가 이어갔습니다.</t>
+  </si>
+  <si>
+    <t>이에 반해, 아우디는 한국에서 가장 적은 수의 자동차를 판매했습니다.</t>
+  </si>
+  <si>
+    <t>This is a bar graph about preferred snacks among 2,000 people.</t>
+  </si>
+  <si>
+    <t>The vertical axis shows different types of snacks, and the horizontal axis represents the number of people.</t>
+  </si>
+  <si>
+    <t>Chips placed first out of all the snacks for males, and chocolate for females.</t>
+  </si>
+  <si>
+    <t>Salad placed last out of all snacks for males, and nuts for females.</t>
+  </si>
+  <si>
+    <t>이것은 2,000명의 응답자를 대상으로 한 선호하는 간식에 대한 바 그래프입니다.</t>
+  </si>
+  <si>
+    <t>세로축은 다양한 간식의 종류를 나타내며, 가로축은 응답자 수를 의미합니다.</t>
+  </si>
+  <si>
+    <t>칩은 남성에게서 모든 간식 중 첫 번째로 꼽혔고, 여성은 초콜릿을 첫 번째로 꼽았습니다.</t>
+  </si>
+  <si>
+    <t>샐러드는 남성에게서 마지막 순위로 꼽혔고, 여성은 견과류를 가장 마지막으로 꼽았습니다.</t>
+  </si>
+  <si>
+    <t>This is a bar graph that shows preferred snacks.</t>
+  </si>
+  <si>
+    <t>It was surveyed among 2,000 people.</t>
+  </si>
+  <si>
+    <t>The vertical axis shows different types of snacks, while the horizontal axis represents the number of responses.</t>
+  </si>
+  <si>
+    <t>The most preferred snacks were chips for males and chocolate for females.</t>
+  </si>
+  <si>
+    <t>However, the least preferred snacks were salad for males and nuts for females.</t>
+  </si>
+  <si>
+    <t>이것은 선호하는 간식을 나타내는 바 그래프입니다.</t>
+  </si>
+  <si>
+    <t>2,000명의 사람을 대상으로 설문 조사가 진행됐습니다.</t>
+  </si>
+  <si>
+    <t>세로축은 다양한 종류의 간식을 나타내며, 가로축은 응답자 수를 의미합니다.</t>
+  </si>
+  <si>
+    <t>가장 선호하는 간식의 종류는 남성의 경우 칩, 여성의 경우 초콜릿이었습니다.</t>
+  </si>
+  <si>
+    <t>이에 반해 가장 선호하지 않는 간식은 남성의 경우 샐러드, 여성의 경우 견과류였습니다.</t>
+  </si>
+  <si>
+    <t>2_bar_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_bar_3</t>
+  </si>
+  <si>
+    <t>3_bar_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_pie_1</t>
+  </si>
+  <si>
+    <t>4_pie_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pie_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a pie graph(chart) about 주제(제목).</t>
+  </si>
+  <si>
+    <t>이것은 ~에 관한 파이 그래프(차트)입니다.</t>
+  </si>
+  <si>
+    <t>It was surveyed among 인원(사람 수).</t>
+  </si>
+  <si>
+    <t>~명을 대상으로 설문 조사가 진행됐습니다.</t>
+  </si>
+  <si>
+    <t>Each portion represents A.</t>
+  </si>
+  <si>
+    <t>각 부분은 A를 의미합니다(나타냅니다).</t>
+  </si>
+  <si>
+    <t>A accounts for about 숫자.</t>
+  </si>
+  <si>
+    <t>A는 ~를 차지하고 있습니다.</t>
+  </si>
+  <si>
+    <t>More than 숫자 percent of the people responded that ~.</t>
+  </si>
+  <si>
+    <t>~% 이상이 ~라고 응답했습니다.</t>
+  </si>
+  <si>
+    <t>From the chart, it can be seen that ~.</t>
+  </si>
+  <si>
+    <t>차트를 통해서, ~임을 알 수 있습니다.</t>
+  </si>
+  <si>
+    <t>This is a pie graph about reasons for social media usage.</t>
+  </si>
+  <si>
+    <t>Each portion represents reasons.</t>
+  </si>
+  <si>
+    <t>‘To stay in touch’ placed first out of all the reasons with 27 percent, and it is followed by ‘to read current events’ with 19 percent.</t>
+  </si>
+  <si>
+    <t>Plus, ‘to meet new people’ placed last with 11 percent.</t>
+  </si>
+  <si>
+    <t>이것은 소셜 미디어 사용 이유에 대한 파이 그래프입니다.</t>
+  </si>
+  <si>
+    <t>2,000명의 응답자를 대상으로 설문이 진행됐습니다.</t>
+  </si>
+  <si>
+    <t>각 부분은 사용 이유를 의미합니다.</t>
+  </si>
+  <si>
+    <t>추가로, ‘새로운 사람을 만나기 위해’는 11%를 기록하며 가장 마지막 순위로 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>‘지인과의 연락을 위해’가 27%를 기록하며 첫 번째 이유로 꼽혔고, 그 뒤를 19%의 ‘최신 뉴스를 확인하기 위해’가 이었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a pie graph that shows the result of a survey in which 2,000 people were asked about the reasons for their social media usage.</t>
+  </si>
+  <si>
+    <t>Each portion represents different reasons.</t>
+  </si>
+  <si>
+    <t>According to the survey, ‘to stay in touch’ accounted for the majority of responses with 27%.</t>
+  </si>
+  <si>
+    <t>‘To read current events’ took second place, taking up 19% of total responses.</t>
+  </si>
+  <si>
+    <t>The smallest portion was taken up by ‘to meet new people’ with only 11%.</t>
+  </si>
+  <si>
+    <t>이것은 2,000명의 응답자를 대상으로 소셜 미디어 사용 이유에 대한 답변 결과를 나타내는 파이 그래프입니다.</t>
+  </si>
+  <si>
+    <t>각 부분은 다양한 사용 이유를 의미합니다.</t>
+  </si>
+  <si>
+    <t>설문조사에 따르면, ‘지인과의 연락을 위해’는 27%를 기록하며 대부분의 응답을 차지했습니다.</t>
+  </si>
+  <si>
+    <t>‘최신 뉴스를 확인하기 위해’는 19%를 기록하며 두 번째 이유로 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>가장 적은 응답은 11%를 기록한 ‘새로운 사람을 만나기 위해’가 차지했습니다.</t>
+  </si>
+  <si>
+    <t>This is a pie graph about the world’s most popular cities for tourists by annual visitors.</t>
+  </si>
+  <si>
+    <t>Each portion represents city names.</t>
+  </si>
+  <si>
+    <t>First, Istanbul placed first with 91.25 million visitors per year, and it is followed by Mexico City with 85 million visitors.</t>
+  </si>
+  <si>
+    <t>However, Paris placed last in the list with only 14 million visitors per year.</t>
+  </si>
+  <si>
+    <t>이것은 연례 방문객 수에 따른 여행자들에게 가장 인기 있는 도시에 대한 파이 그래프입니다.</t>
+  </si>
+  <si>
+    <t>각 부분은 도시명을 의미합니다.</t>
+  </si>
+  <si>
+    <t>하지만 파리는 연 1,400만 명의 방문자만을 기록하며 여행지 중 가장 마지막 순위를 기록했습니다.</t>
+  </si>
+  <si>
+    <t>가장 먼저, 이스탄불은 연 9,125만 명이 방문하여 첫 번째로 꼽혔으며, 그 뒤를 8,500만 명의 방문자를 기록한 멕시코 시티가 이어갔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a pie graph that demonstrates the world’s most popular cities for tourists by annual visitors.</t>
+  </si>
+  <si>
+    <t>Each slice represents city names and the number of annual visitors is shown in million.</t>
+  </si>
+  <si>
+    <t>First, Istanbul had the largest number of visitors with 91.25 million visitors per year, followed by Mexico City with 85 million visitors.</t>
+  </si>
+  <si>
+    <t>Of all the cities on the list, Paris ranked last with only 14 million visitors per year.</t>
+  </si>
+  <si>
+    <t>각 부분은 도시명을 의미하고, 연 방문자 수는 백만 단위로 표시되어 있습니다.</t>
+  </si>
+  <si>
+    <t>열거된 모든 도시 중, 파리는 연 1,400만 명의 방문자만을 보유하며 가장 마지막 순위를 기록했습니다.</t>
+  </si>
+  <si>
+    <t>첫째로, 이스탄불은 연 9,125만 명의 방문자 수를 기록하며 가장 많은 수의 여행객을 보유했고, 이를 8,500만 명의 방문자를 기록한 멕시코 시티가 뒤이었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_pie_2</t>
+  </si>
+  <si>
+    <t>5_pie_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a pie chart about expenses for ABC Company.</t>
+  </si>
+  <si>
+    <t>Each portion represents a different type of expense.</t>
+  </si>
+  <si>
+    <t>Wages placed first with 40 percent, and it is followed by research &amp; development with 19 percent.</t>
+  </si>
+  <si>
+    <t>On the other hand, insurance placed last with only 5 percent.</t>
+  </si>
+  <si>
+    <t>이것은 ABC 회사의 지출에 대한 파이 그래프입니다.</t>
+  </si>
+  <si>
+    <t>각 부분은 다양한 종류의 지출을 의미합니다.</t>
+  </si>
+  <si>
+    <t>임금이 40%를 차지하며 첫 번째 이유로 꼽혔고, 그 뒤를 19%의 연구 개발 항목이 이어갔습니다.</t>
+  </si>
+  <si>
+    <t>반면에, 보험은 5%만을 기록하며 가장 마지막 순위를 꼽혔습니다.</t>
+  </si>
+  <si>
+    <t>6_pie_3</t>
+  </si>
+  <si>
+    <t>6_pie_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a pie chart about ABC Company’s expenses.</t>
+  </si>
+  <si>
+    <t>Each slice represents a different type of expense incurred by the company.</t>
+  </si>
+  <si>
+    <t>The largest portion of ABC Company’s total expenses was wages, which accounts for 40 percent of the total expenses.</t>
+  </si>
+  <si>
+    <t>The second largest portion was for research &amp; development with 19 percent.</t>
+  </si>
+  <si>
+    <t>On the other hand, it can be seen that the company spent the least amount of money on insurance with 5 percent.</t>
+  </si>
+  <si>
+    <t>각 부분은 회사에서 발생한 다양한 종류의 지출을 의미합니다.</t>
+  </si>
+  <si>
+    <t>ABC 회사의 총 지출 중 가장 큰 부분은 임금이었으며, 이는 총 지출의 40%를 차지했습니다.</t>
+  </si>
+  <si>
+    <t>두 번째로 큰 지출 항목은 19%를 기록한 연구 개발 항목이었습니다.</t>
+  </si>
+  <si>
+    <t>반면에, 회사는 가장 적은 지출을 5%의 보험 항목에서 사용했음을 알 수 있습니다.</t>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_line_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a line graph about 주제(제목).</t>
+  </si>
+  <si>
+    <t>A showed the highest(lowest) B with 수치.</t>
+  </si>
+  <si>
+    <t>Not much difference in A can be seen from C to D.</t>
+  </si>
+  <si>
+    <t>The biggest jump(drop) was from A to B.</t>
+  </si>
+  <si>
+    <t>A increased(decreased/jumped/dropped) dramatically from B to C.</t>
+  </si>
+  <si>
+    <t>이것은 ~에 관한 라인 그래프입니다.</t>
+  </si>
+  <si>
+    <t>A가 가장 높은(가장 낮은) 수치를 기록하며 B를 보였습니다.</t>
+  </si>
+  <si>
+    <t>C에서 D까지로 보아 A(에는) 큰 차이가 없음을 알 수 있습니다.</t>
+  </si>
+  <si>
+    <t>가장 큰 상승률(하락률)은 A부터 B까지였습니다.</t>
+  </si>
+  <si>
+    <t>A는 B에서 C까지 극적으로 증가(감소/급등/급락)했습니다.</t>
+  </si>
+  <si>
+    <t>This is a line graph about monthly credit card transactions from January to December.</t>
+  </si>
+  <si>
+    <t>June showed the highest number of credit card transactions with nearly 2 million transactions, and September showed the lowest number of transactions with around .5 million transactions.</t>
+  </si>
+  <si>
+    <t>The biggest jump was from less than .8 million in April to nearly 1.8 million in May.</t>
+  </si>
+  <si>
+    <t>On the other hand, the biggest drop was from 1.5 million in August to less than .6 million in September.</t>
+  </si>
+  <si>
+    <t>이것은 1월부터 12월 사이의 월별 신용카드 이용 건수에 대한 라인 그래프입니다.</t>
+  </si>
+  <si>
+    <t>6월은 약 200만건에 가까운 거래를 기록하며 가장 높은 신용카드 이용 건수를 기록했고, 9월은 약 50만건 정도의 거래를 기록하며 가장 낮은 신용카드 이용 건수를 기록했습니다.</t>
+  </si>
+  <si>
+    <t>가장 큰 상승률은 4월 80만건에 못미치는 수치부터 약 180만건에 가까운 거래를 기록한 5월까지였습니다.</t>
+  </si>
+  <si>
+    <t>반대로, 가장 큰 하락률은 150만건의 거래가 이루어진 8월부터 60만건 이하의 거래를 기록한 9월까지였습니다.</t>
   </si>
 </sst>
 </file>
@@ -4033,10 +5025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2E8B82-C1FA-4A08-A1B2-F576DBBE4546}">
-  <dimension ref="A1:F570"/>
+  <dimension ref="A1:F727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C568" sqref="C568"/>
+    <sheetView tabSelected="1" topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F716" sqref="F716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -13445,6 +14437,12 @@
       <c r="C553" t="s">
         <v>1129</v>
       </c>
+      <c r="D553" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
@@ -13456,6 +14454,12 @@
       <c r="C554" t="s">
         <v>1129</v>
       </c>
+      <c r="D554" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
@@ -13467,6 +14471,12 @@
       <c r="C555" t="s">
         <v>1129</v>
       </c>
+      <c r="D555" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
@@ -13478,6 +14488,12 @@
       <c r="C556" t="s">
         <v>1129</v>
       </c>
+      <c r="D556" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
@@ -13489,6 +14505,12 @@
       <c r="C557" t="s">
         <v>1129</v>
       </c>
+      <c r="D557" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
@@ -13500,6 +14522,12 @@
       <c r="C558" t="s">
         <v>1129</v>
       </c>
+      <c r="D558" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
@@ -13511,6 +14539,12 @@
       <c r="C559" t="s">
         <v>1129</v>
       </c>
+      <c r="D559" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
@@ -13522,8 +14556,14 @@
       <c r="C560" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D560" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E560" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>751</v>
       </c>
@@ -13533,8 +14573,14 @@
       <c r="C561" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D561" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>751</v>
       </c>
@@ -13544,8 +14590,14 @@
       <c r="C562" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D562" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>751</v>
       </c>
@@ -13555,8 +14607,14 @@
       <c r="C563" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D563" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>751</v>
       </c>
@@ -13566,53 +14624,2665 @@
       <c r="C564" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D564" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>751</v>
       </c>
       <c r="B565" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C565" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>751</v>
       </c>
       <c r="B566" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C566" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>751</v>
       </c>
       <c r="B567" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C567" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>751</v>
       </c>
       <c r="B568" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C568" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>751</v>
       </c>
       <c r="B569" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C569" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>751</v>
       </c>
       <c r="B570" t="s">
         <v>1095</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A571" t="s">
+        <v>751</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A572" t="s">
+        <v>751</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A573" t="s">
+        <v>751</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A574" t="s">
+        <v>751</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A575" t="s">
+        <v>751</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A576" t="s">
+        <v>751</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A577" t="s">
+        <v>751</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A578" t="s">
+        <v>751</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A579" t="s">
+        <v>751</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A580" t="s">
+        <v>751</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A581" t="s">
+        <v>751</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A582" t="s">
+        <v>751</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A583" t="s">
+        <v>751</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A584" t="s">
+        <v>751</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A585" t="s">
+        <v>751</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A586" t="s">
+        <v>751</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A587" t="s">
+        <v>751</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A588" t="s">
+        <v>751</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A589" t="s">
+        <v>751</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A590" t="s">
+        <v>751</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A591" t="s">
+        <v>751</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A592" t="s">
+        <v>751</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A593" t="s">
+        <v>751</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A594" t="s">
+        <v>751</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A595" t="s">
+        <v>751</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A596" t="s">
+        <v>751</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A597" t="s">
+        <v>751</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A598" t="s">
+        <v>751</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A599" t="s">
+        <v>751</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D599" t="s">
+        <v>870</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A600" t="s">
+        <v>751</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A601" t="s">
+        <v>751</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A602" t="s">
+        <v>751</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A603" t="s">
+        <v>751</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A604" t="s">
+        <v>751</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A605" t="s">
+        <v>751</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A606" t="s">
+        <v>751</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A607" t="s">
+        <v>751</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A608" t="s">
+        <v>751</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A609" t="s">
+        <v>751</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A610" t="s">
+        <v>751</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A611" t="s">
+        <v>751</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A612" t="s">
+        <v>751</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A613" t="s">
+        <v>751</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A614" t="s">
+        <v>751</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A615" t="s">
+        <v>751</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A616" t="s">
+        <v>751</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A617" t="s">
+        <v>751</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A618" t="s">
+        <v>751</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A619" t="s">
+        <v>751</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A620" t="s">
+        <v>751</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A621" t="s">
+        <v>751</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A622" t="s">
+        <v>751</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E622" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A623" t="s">
+        <v>751</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E623" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A624" t="s">
+        <v>751</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E624" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A625" t="s">
+        <v>751</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E625" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A626" t="s">
+        <v>751</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A627" t="s">
+        <v>751</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E627" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A628" t="s">
+        <v>751</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E628" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A629" t="s">
+        <v>751</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E629" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A630" t="s">
+        <v>751</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A631" t="s">
+        <v>751</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A632" t="s">
+        <v>751</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A633" t="s">
+        <v>751</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E633" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A634" t="s">
+        <v>751</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E634" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A635" t="s">
+        <v>751</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A636" t="s">
+        <v>751</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A637" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B637" t="s">
+        <v>332</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A638" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B638" t="s">
+        <v>332</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A639" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B639" t="s">
+        <v>332</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A640" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B640" t="s">
+        <v>332</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A641" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B641" t="s">
+        <v>332</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A642" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A643" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A644" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A645" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A646" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A647" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A648" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A649" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A650" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A651" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A652" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A653" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A654" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A655" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A656" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A657" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A658" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A659" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A660" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A661" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A662" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A663" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A664" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A665" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A666" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E666" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A667" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A668" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A669" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A670" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A671" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A672" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E672" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A673" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E673" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A674" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D674" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E674" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A675" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E675" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A676" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D676" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E676" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A677" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A678" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D678" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E678" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A679" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E679" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A680" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E680" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A681" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E681" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A682" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E682" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A683" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E683" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A684" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E684" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A685" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E685" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A686" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E686" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A687" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E687" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A688" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A689" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A690" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E690" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A691" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E691" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A692" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E692" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A693" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E693" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A694" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E694" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A695" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E695" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A696" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A697" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E697" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A698" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E698" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A699" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A700" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A701" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E701" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A702" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A703" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E703" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A704" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E704" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A705" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A706" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E706" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A707" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E707" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A708" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E708" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A709" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E709" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A710" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A711" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A712" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A713" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A714" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A715" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F715">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A716" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A717" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A718" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A719" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A720" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A721" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A722" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A723" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A724" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A725" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A726" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A727" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1432</v>
       </c>
     </row>
   </sheetData>
